--- a/tests/testthat/test_data/384/allWellIds.xlsx
+++ b/tests/testthat/test_data/384/allWellIds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd4290b48d2b34c4/Documents/testing_tidyplate/test_data/384/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamdutta/Documents/tidyplate/tests/testthat/test_data/384/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25CC3687-3734-40F8-B1A2-F594809B87B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E1F06BD-3172-EC48-91CC-975A2FC4006F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="allWellIds" sheetId="1" r:id="rId1"/>
@@ -28,33 +28,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
     <t>A10</t>
   </si>
   <si>
@@ -103,33 +76,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
     <t>B10</t>
   </si>
   <si>
@@ -178,33 +124,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
     <t>C10</t>
   </si>
   <si>
@@ -253,33 +172,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
     <t>D10</t>
   </si>
   <si>
@@ -328,33 +220,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
     <t>E10</t>
   </si>
   <si>
@@ -403,33 +268,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
     <t>F10</t>
   </si>
   <si>
@@ -478,33 +316,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
     <t>G10</t>
   </si>
   <si>
@@ -553,33 +364,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
     <t>H10</t>
   </si>
   <si>
@@ -628,33 +412,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>I1</t>
-  </si>
-  <si>
-    <t>I2</t>
-  </si>
-  <si>
-    <t>I3</t>
-  </si>
-  <si>
-    <t>I4</t>
-  </si>
-  <si>
-    <t>I5</t>
-  </si>
-  <si>
-    <t>I6</t>
-  </si>
-  <si>
-    <t>I7</t>
-  </si>
-  <si>
-    <t>I8</t>
-  </si>
-  <si>
-    <t>I9</t>
-  </si>
-  <si>
     <t>I10</t>
   </si>
   <si>
@@ -703,33 +460,6 @@
     <t>J</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>J9</t>
-  </si>
-  <si>
     <t>J10</t>
   </si>
   <si>
@@ -778,33 +508,6 @@
     <t>K</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K7</t>
-  </si>
-  <si>
-    <t>K8</t>
-  </si>
-  <si>
-    <t>K9</t>
-  </si>
-  <si>
     <t>K10</t>
   </si>
   <si>
@@ -853,33 +556,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>L7</t>
-  </si>
-  <si>
-    <t>L8</t>
-  </si>
-  <si>
-    <t>L9</t>
-  </si>
-  <si>
     <t>L10</t>
   </si>
   <si>
@@ -928,33 +604,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>M7</t>
-  </si>
-  <si>
-    <t>M8</t>
-  </si>
-  <si>
-    <t>M9</t>
-  </si>
-  <si>
     <t>M10</t>
   </si>
   <si>
@@ -1003,33 +652,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>N3</t>
-  </si>
-  <si>
-    <t>N4</t>
-  </si>
-  <si>
-    <t>N5</t>
-  </si>
-  <si>
-    <t>N6</t>
-  </si>
-  <si>
-    <t>N7</t>
-  </si>
-  <si>
-    <t>N8</t>
-  </si>
-  <si>
-    <t>N9</t>
-  </si>
-  <si>
     <t>N10</t>
   </si>
   <si>
@@ -1078,33 +700,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>O1</t>
-  </si>
-  <si>
-    <t>O2</t>
-  </si>
-  <si>
-    <t>O3</t>
-  </si>
-  <si>
-    <t>O4</t>
-  </si>
-  <si>
-    <t>O5</t>
-  </si>
-  <si>
-    <t>O6</t>
-  </si>
-  <si>
-    <t>O7</t>
-  </si>
-  <si>
-    <t>O8</t>
-  </si>
-  <si>
-    <t>O9</t>
-  </si>
-  <si>
     <t>O10</t>
   </si>
   <si>
@@ -1153,33 +748,6 @@
     <t>P</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
     <t>P10</t>
   </si>
   <si>
@@ -1223,6 +791,438 @@
   </si>
   <si>
     <t>P24</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>D06</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>D08</t>
+  </si>
+  <si>
+    <t>D09</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>E07</t>
+  </si>
+  <si>
+    <t>E08</t>
+  </si>
+  <si>
+    <t>E09</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>G01</t>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>G03</t>
+  </si>
+  <si>
+    <t>G04</t>
+  </si>
+  <si>
+    <t>G05</t>
+  </si>
+  <si>
+    <t>G06</t>
+  </si>
+  <si>
+    <t>G07</t>
+  </si>
+  <si>
+    <t>G08</t>
+  </si>
+  <si>
+    <t>G09</t>
+  </si>
+  <si>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>H02</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>H04</t>
+  </si>
+  <si>
+    <t>H05</t>
+  </si>
+  <si>
+    <t>H06</t>
+  </si>
+  <si>
+    <t>H07</t>
+  </si>
+  <si>
+    <t>H08</t>
+  </si>
+  <si>
+    <t>H09</t>
+  </si>
+  <si>
+    <t>I01</t>
+  </si>
+  <si>
+    <t>J01</t>
+  </si>
+  <si>
+    <t>K01</t>
+  </si>
+  <si>
+    <t>L01</t>
+  </si>
+  <si>
+    <t>M01</t>
+  </si>
+  <si>
+    <t>N01</t>
+  </si>
+  <si>
+    <t>O01</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>I02</t>
+  </si>
+  <si>
+    <t>J02</t>
+  </si>
+  <si>
+    <t>K02</t>
+  </si>
+  <si>
+    <t>L02</t>
+  </si>
+  <si>
+    <t>M02</t>
+  </si>
+  <si>
+    <t>N02</t>
+  </si>
+  <si>
+    <t>O02</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>I03</t>
+  </si>
+  <si>
+    <t>J03</t>
+  </si>
+  <si>
+    <t>K03</t>
+  </si>
+  <si>
+    <t>L03</t>
+  </si>
+  <si>
+    <t>M03</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>O03</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>I04</t>
+  </si>
+  <si>
+    <t>J04</t>
+  </si>
+  <si>
+    <t>K04</t>
+  </si>
+  <si>
+    <t>L04</t>
+  </si>
+  <si>
+    <t>M04</t>
+  </si>
+  <si>
+    <t>N04</t>
+  </si>
+  <si>
+    <t>O04</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>I05</t>
+  </si>
+  <si>
+    <t>J05</t>
+  </si>
+  <si>
+    <t>K05</t>
+  </si>
+  <si>
+    <t>L05</t>
+  </si>
+  <si>
+    <t>M05</t>
+  </si>
+  <si>
+    <t>N05</t>
+  </si>
+  <si>
+    <t>O05</t>
+  </si>
+  <si>
+    <t>P05</t>
+  </si>
+  <si>
+    <t>I06</t>
+  </si>
+  <si>
+    <t>J06</t>
+  </si>
+  <si>
+    <t>K06</t>
+  </si>
+  <si>
+    <t>L06</t>
+  </si>
+  <si>
+    <t>M06</t>
+  </si>
+  <si>
+    <t>N06</t>
+  </si>
+  <si>
+    <t>O06</t>
+  </si>
+  <si>
+    <t>P06</t>
+  </si>
+  <si>
+    <t>I07</t>
+  </si>
+  <si>
+    <t>J07</t>
+  </si>
+  <si>
+    <t>K07</t>
+  </si>
+  <si>
+    <t>L07</t>
+  </si>
+  <si>
+    <t>M07</t>
+  </si>
+  <si>
+    <t>N07</t>
+  </si>
+  <si>
+    <t>O07</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>I08</t>
+  </si>
+  <si>
+    <t>J08</t>
+  </si>
+  <si>
+    <t>K08</t>
+  </si>
+  <si>
+    <t>L08</t>
+  </si>
+  <si>
+    <t>M08</t>
+  </si>
+  <si>
+    <t>N08</t>
+  </si>
+  <si>
+    <t>O08</t>
+  </si>
+  <si>
+    <t>P08</t>
+  </si>
+  <si>
+    <t>I09</t>
+  </si>
+  <si>
+    <t>J09</t>
+  </si>
+  <si>
+    <t>K09</t>
+  </si>
+  <si>
+    <t>L09</t>
+  </si>
+  <si>
+    <t>M09</t>
+  </si>
+  <si>
+    <t>N09</t>
+  </si>
+  <si>
+    <t>O09</t>
+  </si>
+  <si>
+    <t>P09</t>
   </si>
 </sst>
 </file>
@@ -1231,14 +1231,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1276,28 +1276,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1305,7 +1305,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1313,14 +1313,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1328,14 +1328,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1343,7 +1343,7 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1351,14 +1351,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2065,11 +2065,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2146,1239 +2148,1239 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="L2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="N2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="O2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="P2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="Q2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="R2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="S2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="T2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="U2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="V2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="W2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="X2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Y2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="B3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="U2" t="s">
+      <c r="N3" t="s">
         <v>21</v>
       </c>
-      <c r="V2" t="s">
+      <c r="O3" t="s">
         <v>22</v>
       </c>
-      <c r="W2" t="s">
+      <c r="P3" t="s">
         <v>23</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Q3" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="R3" t="s">
         <v>25</v>
       </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="B4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J4" t="s">
+        <v>283</v>
+      </c>
+      <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L4" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N4" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O4" t="s">
         <v>38</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P4" t="s">
         <v>39</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q4" t="s">
         <v>40</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R4" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S4" t="s">
         <v>42</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T4" t="s">
         <v>43</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U4" t="s">
         <v>44</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V4" t="s">
         <v>45</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W4" t="s">
         <v>46</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X4" t="s">
         <v>47</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y4" t="s">
         <v>48</v>
       </c>
-      <c r="X3" t="s">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="B5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H5" t="s">
+        <v>290</v>
+      </c>
+      <c r="I5" t="s">
+        <v>291</v>
+      </c>
+      <c r="J5" t="s">
+        <v>292</v>
+      </c>
+      <c r="K5" t="s">
         <v>50</v>
       </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>65</v>
       </c>
-      <c r="P4" t="s">
+      <c r="B6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J6" t="s">
+        <v>301</v>
+      </c>
+      <c r="K6" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="L6" t="s">
         <v>67</v>
       </c>
-      <c r="R4" t="s">
+      <c r="M6" t="s">
         <v>68</v>
       </c>
-      <c r="S4" t="s">
+      <c r="N6" t="s">
         <v>69</v>
       </c>
-      <c r="T4" t="s">
+      <c r="O6" t="s">
         <v>70</v>
       </c>
-      <c r="U4" t="s">
+      <c r="P6" t="s">
         <v>71</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Q6" t="s">
         <v>72</v>
       </c>
-      <c r="W4" t="s">
+      <c r="R6" t="s">
         <v>73</v>
       </c>
-      <c r="X4" t="s">
+      <c r="S6" t="s">
         <v>74</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="T6" t="s">
         <v>75</v>
       </c>
+      <c r="U6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>81</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I7" t="s">
+        <v>309</v>
+      </c>
+      <c r="J7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K7" t="s">
         <v>82</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L7" t="s">
         <v>83</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M7" t="s">
         <v>84</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O7" t="s">
         <v>86</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P7" t="s">
         <v>87</v>
       </c>
-      <c r="M5" t="s">
+      <c r="Q7" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="R7" t="s">
         <v>89</v>
       </c>
-      <c r="O5" t="s">
+      <c r="S7" t="s">
         <v>90</v>
       </c>
-      <c r="P5" t="s">
+      <c r="T7" t="s">
         <v>91</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="U7" t="s">
         <v>92</v>
       </c>
-      <c r="R5" t="s">
+      <c r="V7" t="s">
         <v>93</v>
       </c>
-      <c r="S5" t="s">
+      <c r="W7" t="s">
         <v>94</v>
       </c>
-      <c r="T5" t="s">
+      <c r="X7" t="s">
         <v>95</v>
       </c>
-      <c r="U5" t="s">
+      <c r="Y7" t="s">
         <v>96</v>
       </c>
-      <c r="V5" t="s">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>97</v>
       </c>
-      <c r="W5" t="s">
+      <c r="B8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G8" t="s">
+        <v>316</v>
+      </c>
+      <c r="H8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I8" t="s">
+        <v>318</v>
+      </c>
+      <c r="J8" t="s">
+        <v>319</v>
+      </c>
+      <c r="K8" t="s">
         <v>98</v>
       </c>
-      <c r="X5" t="s">
+      <c r="L8" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="M8" t="s">
         <v>100</v>
       </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8" t="s">
+        <v>105</v>
+      </c>
+      <c r="S8" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" t="s">
+        <v>107</v>
+      </c>
+      <c r="U8" t="s">
+        <v>108</v>
+      </c>
+      <c r="V8" t="s">
+        <v>109</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L6" t="s">
-        <v>112</v>
-      </c>
-      <c r="M6" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>113</v>
       </c>
-      <c r="N6" t="s">
+      <c r="B9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" t="s">
+        <v>323</v>
+      </c>
+      <c r="F9" t="s">
+        <v>324</v>
+      </c>
+      <c r="G9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H9" t="s">
+        <v>326</v>
+      </c>
+      <c r="I9" t="s">
+        <v>327</v>
+      </c>
+      <c r="J9" t="s">
+        <v>328</v>
+      </c>
+      <c r="K9" t="s">
         <v>114</v>
       </c>
-      <c r="O6" t="s">
+      <c r="L9" t="s">
         <v>115</v>
       </c>
-      <c r="P6" t="s">
+      <c r="M9" t="s">
         <v>116</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="N9" t="s">
         <v>117</v>
       </c>
-      <c r="R6" t="s">
+      <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="S6" t="s">
+      <c r="P9" t="s">
         <v>119</v>
       </c>
-      <c r="T6" t="s">
+      <c r="Q9" t="s">
         <v>120</v>
       </c>
-      <c r="U6" t="s">
+      <c r="R9" t="s">
         <v>121</v>
       </c>
-      <c r="V6" t="s">
+      <c r="S9" t="s">
         <v>122</v>
       </c>
-      <c r="W6" t="s">
+      <c r="T9" t="s">
         <v>123</v>
       </c>
-      <c r="X6" t="s">
+      <c r="U9" t="s">
         <v>124</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="V9" t="s">
         <v>125</v>
       </c>
+      <c r="W9" t="s">
+        <v>126</v>
+      </c>
+      <c r="X9" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>129</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" t="s">
+        <v>361</v>
+      </c>
+      <c r="G10" t="s">
+        <v>369</v>
+      </c>
+      <c r="H10" t="s">
+        <v>377</v>
+      </c>
+      <c r="I10" t="s">
+        <v>385</v>
+      </c>
+      <c r="J10" t="s">
+        <v>393</v>
+      </c>
+      <c r="K10" t="s">
         <v>130</v>
       </c>
-      <c r="F7" t="s">
+      <c r="L10" t="s">
         <v>131</v>
       </c>
-      <c r="G7" t="s">
+      <c r="M10" t="s">
         <v>132</v>
       </c>
-      <c r="H7" t="s">
+      <c r="N10" t="s">
         <v>133</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O10" t="s">
         <v>134</v>
       </c>
-      <c r="J7" t="s">
+      <c r="P10" t="s">
         <v>135</v>
       </c>
-      <c r="K7" t="s">
+      <c r="Q10" t="s">
         <v>136</v>
       </c>
-      <c r="L7" t="s">
+      <c r="R10" t="s">
         <v>137</v>
       </c>
-      <c r="M7" t="s">
+      <c r="S10" t="s">
         <v>138</v>
       </c>
-      <c r="N7" t="s">
+      <c r="T10" t="s">
         <v>139</v>
       </c>
-      <c r="O7" t="s">
+      <c r="U10" t="s">
         <v>140</v>
       </c>
-      <c r="P7" t="s">
+      <c r="V10" t="s">
         <v>141</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="W10" t="s">
         <v>142</v>
       </c>
-      <c r="R7" t="s">
+      <c r="X10" t="s">
         <v>143</v>
       </c>
-      <c r="S7" t="s">
+      <c r="Y10" t="s">
         <v>144</v>
       </c>
-      <c r="T7" t="s">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>145</v>
       </c>
-      <c r="U7" t="s">
+      <c r="B11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" t="s">
+        <v>354</v>
+      </c>
+      <c r="F11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G11" t="s">
+        <v>370</v>
+      </c>
+      <c r="H11" t="s">
+        <v>378</v>
+      </c>
+      <c r="I11" t="s">
+        <v>386</v>
+      </c>
+      <c r="J11" t="s">
+        <v>394</v>
+      </c>
+      <c r="K11" t="s">
         <v>146</v>
       </c>
-      <c r="V7" t="s">
+      <c r="L11" t="s">
         <v>147</v>
       </c>
-      <c r="W7" t="s">
+      <c r="M11" t="s">
         <v>148</v>
       </c>
-      <c r="X7" t="s">
+      <c r="N11" t="s">
         <v>149</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="O11" t="s">
         <v>150</v>
       </c>
+      <c r="P11" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>152</v>
+      </c>
+      <c r="R11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S11" t="s">
+        <v>154</v>
+      </c>
+      <c r="T11" t="s">
+        <v>155</v>
+      </c>
+      <c r="U11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V11" t="s">
+        <v>157</v>
+      </c>
+      <c r="W11" t="s">
+        <v>158</v>
+      </c>
+      <c r="X11" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K8" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>161</v>
       </c>
-      <c r="L8" t="s">
+      <c r="B12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" t="s">
+        <v>347</v>
+      </c>
+      <c r="E12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F12" t="s">
+        <v>363</v>
+      </c>
+      <c r="G12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H12" t="s">
+        <v>379</v>
+      </c>
+      <c r="I12" t="s">
+        <v>387</v>
+      </c>
+      <c r="J12" t="s">
+        <v>395</v>
+      </c>
+      <c r="K12" t="s">
         <v>162</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L12" t="s">
         <v>163</v>
       </c>
-      <c r="N8" t="s">
+      <c r="M12" t="s">
         <v>164</v>
       </c>
-      <c r="O8" t="s">
+      <c r="N12" t="s">
         <v>165</v>
       </c>
-      <c r="P8" t="s">
+      <c r="O12" t="s">
         <v>166</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="P12" t="s">
         <v>167</v>
       </c>
-      <c r="R8" t="s">
+      <c r="Q12" t="s">
         <v>168</v>
       </c>
-      <c r="S8" t="s">
+      <c r="R12" t="s">
         <v>169</v>
       </c>
-      <c r="T8" t="s">
+      <c r="S12" t="s">
         <v>170</v>
       </c>
-      <c r="U8" t="s">
+      <c r="T12" t="s">
         <v>171</v>
       </c>
-      <c r="V8" t="s">
+      <c r="U12" t="s">
         <v>172</v>
       </c>
-      <c r="W8" t="s">
+      <c r="V12" t="s">
         <v>173</v>
       </c>
-      <c r="X8" t="s">
+      <c r="W12" t="s">
         <v>174</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="X12" t="s">
         <v>175</v>
       </c>
+      <c r="Y12" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>177</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" t="s">
+        <v>364</v>
+      </c>
+      <c r="G13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H13" t="s">
+        <v>380</v>
+      </c>
+      <c r="I13" t="s">
+        <v>388</v>
+      </c>
+      <c r="J13" t="s">
+        <v>396</v>
+      </c>
+      <c r="K13" t="s">
         <v>178</v>
       </c>
-      <c r="D9" t="s">
+      <c r="L13" t="s">
         <v>179</v>
       </c>
-      <c r="E9" t="s">
+      <c r="M13" t="s">
         <v>180</v>
       </c>
-      <c r="F9" t="s">
+      <c r="N13" t="s">
         <v>181</v>
       </c>
-      <c r="G9" t="s">
+      <c r="O13" t="s">
         <v>182</v>
       </c>
-      <c r="H9" t="s">
+      <c r="P13" t="s">
         <v>183</v>
       </c>
-      <c r="I9" t="s">
+      <c r="Q13" t="s">
         <v>184</v>
       </c>
-      <c r="J9" t="s">
+      <c r="R13" t="s">
         <v>185</v>
       </c>
-      <c r="K9" t="s">
+      <c r="S13" t="s">
         <v>186</v>
       </c>
-      <c r="L9" t="s">
+      <c r="T13" t="s">
         <v>187</v>
       </c>
-      <c r="M9" t="s">
+      <c r="U13" t="s">
         <v>188</v>
       </c>
-      <c r="N9" t="s">
+      <c r="V13" t="s">
         <v>189</v>
       </c>
-      <c r="O9" t="s">
+      <c r="W13" t="s">
         <v>190</v>
       </c>
-      <c r="P9" t="s">
+      <c r="X13" t="s">
         <v>191</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Y13" t="s">
         <v>192</v>
       </c>
-      <c r="R9" t="s">
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>193</v>
       </c>
-      <c r="S9" t="s">
+      <c r="B14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" t="s">
+        <v>349</v>
+      </c>
+      <c r="E14" t="s">
+        <v>357</v>
+      </c>
+      <c r="F14" t="s">
+        <v>365</v>
+      </c>
+      <c r="G14" t="s">
+        <v>373</v>
+      </c>
+      <c r="H14" t="s">
+        <v>381</v>
+      </c>
+      <c r="I14" t="s">
+        <v>389</v>
+      </c>
+      <c r="J14" t="s">
+        <v>397</v>
+      </c>
+      <c r="K14" t="s">
         <v>194</v>
       </c>
-      <c r="T9" t="s">
+      <c r="L14" t="s">
         <v>195</v>
       </c>
-      <c r="U9" t="s">
+      <c r="M14" t="s">
         <v>196</v>
       </c>
-      <c r="V9" t="s">
+      <c r="N14" t="s">
         <v>197</v>
       </c>
-      <c r="W9" t="s">
+      <c r="O14" t="s">
         <v>198</v>
       </c>
-      <c r="X9" t="s">
+      <c r="P14" t="s">
         <v>199</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Q14" t="s">
         <v>200</v>
       </c>
+      <c r="R14" t="s">
+        <v>201</v>
+      </c>
+      <c r="S14" t="s">
+        <v>202</v>
+      </c>
+      <c r="T14" t="s">
+        <v>203</v>
+      </c>
+      <c r="U14" t="s">
+        <v>204</v>
+      </c>
+      <c r="V14" t="s">
+        <v>205</v>
+      </c>
+      <c r="W14" t="s">
+        <v>206</v>
+      </c>
+      <c r="X14" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H10" t="s">
-        <v>208</v>
-      </c>
-      <c r="I10" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>209</v>
       </c>
-      <c r="J10" t="s">
+      <c r="B15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" t="s">
+        <v>350</v>
+      </c>
+      <c r="E15" t="s">
+        <v>358</v>
+      </c>
+      <c r="F15" t="s">
+        <v>366</v>
+      </c>
+      <c r="G15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H15" t="s">
+        <v>382</v>
+      </c>
+      <c r="I15" t="s">
+        <v>390</v>
+      </c>
+      <c r="J15" t="s">
+        <v>398</v>
+      </c>
+      <c r="K15" t="s">
         <v>210</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L15" t="s">
         <v>211</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M15" t="s">
         <v>212</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N15" t="s">
         <v>213</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O15" t="s">
         <v>214</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P15" t="s">
         <v>215</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q15" t="s">
         <v>216</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R15" t="s">
         <v>217</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S15" t="s">
         <v>218</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T15" t="s">
         <v>219</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U15" t="s">
         <v>220</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V15" t="s">
         <v>221</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W15" t="s">
         <v>222</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X15" t="s">
         <v>223</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y15" t="s">
         <v>224</v>
       </c>
-      <c r="Y10" t="s">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>225</v>
       </c>
+      <c r="B16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" t="s">
+        <v>367</v>
+      </c>
+      <c r="G16" t="s">
+        <v>375</v>
+      </c>
+      <c r="H16" t="s">
+        <v>383</v>
+      </c>
+      <c r="I16" t="s">
+        <v>391</v>
+      </c>
+      <c r="J16" t="s">
+        <v>399</v>
+      </c>
+      <c r="K16" t="s">
+        <v>226</v>
+      </c>
+      <c r="L16" t="s">
+        <v>227</v>
+      </c>
+      <c r="M16" t="s">
+        <v>228</v>
+      </c>
+      <c r="N16" t="s">
+        <v>229</v>
+      </c>
+      <c r="O16" t="s">
+        <v>230</v>
+      </c>
+      <c r="P16" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>232</v>
+      </c>
+      <c r="R16" t="s">
+        <v>233</v>
+      </c>
+      <c r="S16" t="s">
+        <v>234</v>
+      </c>
+      <c r="T16" t="s">
+        <v>235</v>
+      </c>
+      <c r="U16" t="s">
+        <v>236</v>
+      </c>
+      <c r="V16" t="s">
+        <v>237</v>
+      </c>
+      <c r="W16" t="s">
+        <v>238</v>
+      </c>
+      <c r="X16" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>240</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11" t="s">
-        <v>230</v>
-      </c>
-      <c r="F11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G11" t="s">
-        <v>232</v>
-      </c>
-      <c r="H11" t="s">
-        <v>233</v>
-      </c>
-      <c r="I11" t="s">
-        <v>234</v>
-      </c>
-      <c r="J11" t="s">
-        <v>235</v>
-      </c>
-      <c r="K11" t="s">
-        <v>236</v>
-      </c>
-      <c r="L11" t="s">
-        <v>237</v>
-      </c>
-      <c r="M11" t="s">
-        <v>238</v>
-      </c>
-      <c r="N11" t="s">
-        <v>239</v>
-      </c>
-      <c r="O11" t="s">
-        <v>240</v>
-      </c>
-      <c r="P11" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>241</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="B17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" t="s">
+        <v>352</v>
+      </c>
+      <c r="E17" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17" t="s">
+        <v>368</v>
+      </c>
+      <c r="G17" t="s">
+        <v>376</v>
+      </c>
+      <c r="H17" t="s">
+        <v>384</v>
+      </c>
+      <c r="I17" t="s">
+        <v>392</v>
+      </c>
+      <c r="J17" t="s">
+        <v>400</v>
+      </c>
+      <c r="K17" t="s">
         <v>242</v>
       </c>
-      <c r="R11" t="s">
+      <c r="L17" t="s">
         <v>243</v>
       </c>
-      <c r="S11" t="s">
+      <c r="M17" t="s">
         <v>244</v>
       </c>
-      <c r="T11" t="s">
+      <c r="N17" t="s">
         <v>245</v>
       </c>
-      <c r="U11" t="s">
+      <c r="O17" t="s">
         <v>246</v>
       </c>
-      <c r="V11" t="s">
+      <c r="P17" t="s">
         <v>247</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Q17" t="s">
         <v>248</v>
       </c>
-      <c r="X11" t="s">
+      <c r="R17" t="s">
         <v>249</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="S17" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="T17" t="s">
         <v>251</v>
       </c>
-      <c r="B12" t="s">
+      <c r="U17" t="s">
         <v>252</v>
       </c>
-      <c r="C12" t="s">
+      <c r="V17" t="s">
         <v>253</v>
       </c>
-      <c r="D12" t="s">
+      <c r="W17" t="s">
         <v>254</v>
       </c>
-      <c r="E12" t="s">
+      <c r="X17" t="s">
         <v>255</v>
       </c>
-      <c r="F12" t="s">
+      <c r="Y17" t="s">
         <v>256</v>
-      </c>
-      <c r="G12" t="s">
-        <v>257</v>
-      </c>
-      <c r="H12" t="s">
-        <v>258</v>
-      </c>
-      <c r="I12" t="s">
-        <v>259</v>
-      </c>
-      <c r="J12" t="s">
-        <v>260</v>
-      </c>
-      <c r="K12" t="s">
-        <v>261</v>
-      </c>
-      <c r="L12" t="s">
-        <v>262</v>
-      </c>
-      <c r="M12" t="s">
-        <v>263</v>
-      </c>
-      <c r="N12" t="s">
-        <v>264</v>
-      </c>
-      <c r="O12" t="s">
-        <v>265</v>
-      </c>
-      <c r="P12" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>267</v>
-      </c>
-      <c r="R12" t="s">
-        <v>268</v>
-      </c>
-      <c r="S12" t="s">
-        <v>269</v>
-      </c>
-      <c r="T12" t="s">
-        <v>270</v>
-      </c>
-      <c r="U12" t="s">
-        <v>271</v>
-      </c>
-      <c r="V12" t="s">
-        <v>272</v>
-      </c>
-      <c r="W12" t="s">
-        <v>273</v>
-      </c>
-      <c r="X12" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>276</v>
-      </c>
-      <c r="B13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E13" t="s">
-        <v>280</v>
-      </c>
-      <c r="F13" t="s">
-        <v>281</v>
-      </c>
-      <c r="G13" t="s">
-        <v>282</v>
-      </c>
-      <c r="H13" t="s">
-        <v>283</v>
-      </c>
-      <c r="I13" t="s">
-        <v>284</v>
-      </c>
-      <c r="J13" t="s">
-        <v>285</v>
-      </c>
-      <c r="K13" t="s">
-        <v>286</v>
-      </c>
-      <c r="L13" t="s">
-        <v>287</v>
-      </c>
-      <c r="M13" t="s">
-        <v>288</v>
-      </c>
-      <c r="N13" t="s">
-        <v>289</v>
-      </c>
-      <c r="O13" t="s">
-        <v>290</v>
-      </c>
-      <c r="P13" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>292</v>
-      </c>
-      <c r="R13" t="s">
-        <v>293</v>
-      </c>
-      <c r="S13" t="s">
-        <v>294</v>
-      </c>
-      <c r="T13" t="s">
-        <v>295</v>
-      </c>
-      <c r="U13" t="s">
-        <v>296</v>
-      </c>
-      <c r="V13" t="s">
-        <v>297</v>
-      </c>
-      <c r="W13" t="s">
-        <v>298</v>
-      </c>
-      <c r="X13" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>301</v>
-      </c>
-      <c r="B14" t="s">
-        <v>302</v>
-      </c>
-      <c r="C14" t="s">
-        <v>303</v>
-      </c>
-      <c r="D14" t="s">
-        <v>304</v>
-      </c>
-      <c r="E14" t="s">
-        <v>305</v>
-      </c>
-      <c r="F14" t="s">
-        <v>306</v>
-      </c>
-      <c r="G14" t="s">
-        <v>307</v>
-      </c>
-      <c r="H14" t="s">
-        <v>308</v>
-      </c>
-      <c r="I14" t="s">
-        <v>309</v>
-      </c>
-      <c r="J14" t="s">
-        <v>310</v>
-      </c>
-      <c r="K14" t="s">
-        <v>311</v>
-      </c>
-      <c r="L14" t="s">
-        <v>312</v>
-      </c>
-      <c r="M14" t="s">
-        <v>313</v>
-      </c>
-      <c r="N14" t="s">
-        <v>314</v>
-      </c>
-      <c r="O14" t="s">
-        <v>315</v>
-      </c>
-      <c r="P14" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>317</v>
-      </c>
-      <c r="R14" t="s">
-        <v>318</v>
-      </c>
-      <c r="S14" t="s">
-        <v>319</v>
-      </c>
-      <c r="T14" t="s">
-        <v>320</v>
-      </c>
-      <c r="U14" t="s">
-        <v>321</v>
-      </c>
-      <c r="V14" t="s">
-        <v>322</v>
-      </c>
-      <c r="W14" t="s">
-        <v>323</v>
-      </c>
-      <c r="X14" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>326</v>
-      </c>
-      <c r="B15" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" t="s">
-        <v>328</v>
-      </c>
-      <c r="D15" t="s">
-        <v>329</v>
-      </c>
-      <c r="E15" t="s">
-        <v>330</v>
-      </c>
-      <c r="F15" t="s">
-        <v>331</v>
-      </c>
-      <c r="G15" t="s">
-        <v>332</v>
-      </c>
-      <c r="H15" t="s">
-        <v>333</v>
-      </c>
-      <c r="I15" t="s">
-        <v>334</v>
-      </c>
-      <c r="J15" t="s">
-        <v>335</v>
-      </c>
-      <c r="K15" t="s">
-        <v>336</v>
-      </c>
-      <c r="L15" t="s">
-        <v>337</v>
-      </c>
-      <c r="M15" t="s">
-        <v>338</v>
-      </c>
-      <c r="N15" t="s">
-        <v>339</v>
-      </c>
-      <c r="O15" t="s">
-        <v>340</v>
-      </c>
-      <c r="P15" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>342</v>
-      </c>
-      <c r="R15" t="s">
-        <v>343</v>
-      </c>
-      <c r="S15" t="s">
-        <v>344</v>
-      </c>
-      <c r="T15" t="s">
-        <v>345</v>
-      </c>
-      <c r="U15" t="s">
-        <v>346</v>
-      </c>
-      <c r="V15" t="s">
-        <v>347</v>
-      </c>
-      <c r="W15" t="s">
-        <v>348</v>
-      </c>
-      <c r="X15" t="s">
-        <v>349</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>351</v>
-      </c>
-      <c r="B16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C16" t="s">
-        <v>353</v>
-      </c>
-      <c r="D16" t="s">
-        <v>354</v>
-      </c>
-      <c r="E16" t="s">
-        <v>355</v>
-      </c>
-      <c r="F16" t="s">
-        <v>356</v>
-      </c>
-      <c r="G16" t="s">
-        <v>357</v>
-      </c>
-      <c r="H16" t="s">
-        <v>358</v>
-      </c>
-      <c r="I16" t="s">
-        <v>359</v>
-      </c>
-      <c r="J16" t="s">
-        <v>360</v>
-      </c>
-      <c r="K16" t="s">
-        <v>361</v>
-      </c>
-      <c r="L16" t="s">
-        <v>362</v>
-      </c>
-      <c r="M16" t="s">
-        <v>363</v>
-      </c>
-      <c r="N16" t="s">
-        <v>364</v>
-      </c>
-      <c r="O16" t="s">
-        <v>365</v>
-      </c>
-      <c r="P16" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>367</v>
-      </c>
-      <c r="R16" t="s">
-        <v>368</v>
-      </c>
-      <c r="S16" t="s">
-        <v>369</v>
-      </c>
-      <c r="T16" t="s">
-        <v>370</v>
-      </c>
-      <c r="U16" t="s">
-        <v>371</v>
-      </c>
-      <c r="V16" t="s">
-        <v>372</v>
-      </c>
-      <c r="W16" t="s">
-        <v>373</v>
-      </c>
-      <c r="X16" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>376</v>
-      </c>
-      <c r="B17" t="s">
-        <v>377</v>
-      </c>
-      <c r="C17" t="s">
-        <v>378</v>
-      </c>
-      <c r="D17" t="s">
-        <v>379</v>
-      </c>
-      <c r="E17" t="s">
-        <v>380</v>
-      </c>
-      <c r="F17" t="s">
-        <v>381</v>
-      </c>
-      <c r="G17" t="s">
-        <v>382</v>
-      </c>
-      <c r="H17" t="s">
-        <v>383</v>
-      </c>
-      <c r="I17" t="s">
-        <v>384</v>
-      </c>
-      <c r="J17" t="s">
-        <v>385</v>
-      </c>
-      <c r="K17" t="s">
-        <v>386</v>
-      </c>
-      <c r="L17" t="s">
-        <v>387</v>
-      </c>
-      <c r="M17" t="s">
-        <v>388</v>
-      </c>
-      <c r="N17" t="s">
-        <v>389</v>
-      </c>
-      <c r="O17" t="s">
-        <v>390</v>
-      </c>
-      <c r="P17" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>392</v>
-      </c>
-      <c r="R17" t="s">
-        <v>393</v>
-      </c>
-      <c r="S17" t="s">
-        <v>394</v>
-      </c>
-      <c r="T17" t="s">
-        <v>395</v>
-      </c>
-      <c r="U17" t="s">
-        <v>396</v>
-      </c>
-      <c r="V17" t="s">
-        <v>397</v>
-      </c>
-      <c r="W17" t="s">
-        <v>398</v>
-      </c>
-      <c r="X17" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>400</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>